--- a/Правки/Несоответствие макету и тз.xlsx
+++ b/Правки/Несоответствие макету и тз.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295294EC-267C-4013-88D9-5986972173EE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92952F0D-D014-4D90-A066-B17BFB7CEF96}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
     <t>При преключении столбики с процентами должны заполняться красным паттерном снизу вверх</t>
   </si>
   <si>
-    <t>При преключении столбики с процентами заполняются красным паттерном сверху вниз</t>
-  </si>
-  <si>
     <t>Ссылка «Софт для быстрого создания скриншотов» должна вести сюда http://monosnap.com/ (открывается в новом окне)</t>
   </si>
   <si>
@@ -57,6 +54,9 @@
   </si>
   <si>
     <t>Сам блок исчезает и появляется из прозрачности. Однако изображение, которое находится в левой части блока, сначала появляется внизу под блоком и только потом внутри блока (Скриншот - "Изображение из блока", выделено красным)</t>
+  </si>
+  <si>
+    <t>При переключении столбики с процентами заполняются красным паттерном сверху вниз</t>
   </si>
 </sst>
 </file>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,47 +470,47 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
